--- a/MATLAB/volumeResults.xlsx
+++ b/MATLAB/volumeResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biomechanics\MSM\Database\VSDFullBodyBoneModels\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B37CCF-130B-4B4C-B3F3-864CEE22B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F37304-C368-4E60-82C1-4D3204F81B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>Bone name</t>
   </si>
@@ -112,220 +112,229 @@
     <t>Phalanges_L</t>
   </si>
   <si>
-    <t>204 ± 27</t>
-  </si>
-  <si>
-    <t>326 ± 54</t>
-  </si>
-  <si>
-    <t>327 ± 54</t>
-  </si>
-  <si>
-    <t>529 ± 110</t>
-  </si>
-  <si>
-    <t>530 ± 111</t>
+    <t>203 ± 27</t>
+  </si>
+  <si>
+    <t>328 ± 56</t>
+  </si>
+  <si>
+    <t>328 ± 55</t>
+  </si>
+  <si>
+    <t>533 ± 113</t>
+  </si>
+  <si>
+    <t>535 ± 114</t>
   </si>
   <si>
     <t>19 ± 5</t>
   </si>
   <si>
-    <t>331 ± 72</t>
-  </si>
-  <si>
-    <t>334 ± 71</t>
+    <t>334 ± 74</t>
+  </si>
+  <si>
+    <t>337 ± 73</t>
+  </si>
+  <si>
+    <t>62 ± 16</t>
   </si>
   <si>
     <t>61 ± 15</t>
   </si>
   <si>
-    <t>60 ± 15</t>
-  </si>
-  <si>
-    <t>37 ± 8</t>
-  </si>
-  <si>
-    <t>69 ± 14</t>
-  </si>
-  <si>
-    <t>42 ± 9</t>
+    <t>37 ± 9</t>
+  </si>
+  <si>
+    <t>38 ± 9</t>
+  </si>
+  <si>
+    <t>70 ± 14</t>
   </si>
   <si>
     <t>43 ± 9</t>
   </si>
   <si>
-    <t>48 ± 9</t>
+    <t>44 ± 10</t>
+  </si>
+  <si>
+    <t>49 ± 10</t>
+  </si>
+  <si>
+    <t>49 ± 9</t>
   </si>
   <si>
     <t>16 ± 3</t>
   </si>
   <si>
-    <t>198 (38)</t>
-  </si>
-  <si>
-    <t>313 (75)</t>
-  </si>
-  <si>
-    <t>313 (82)</t>
-  </si>
-  <si>
-    <t>545 (200)</t>
-  </si>
-  <si>
-    <t>544 (201)</t>
-  </si>
-  <si>
-    <t>19 (6)</t>
-  </si>
-  <si>
-    <t>18 (6)</t>
-  </si>
-  <si>
-    <t>345 (121)</t>
-  </si>
-  <si>
-    <t>347 (129)</t>
-  </si>
-  <si>
-    <t>61 (19)</t>
-  </si>
-  <si>
-    <t>59 (19)</t>
-  </si>
-  <si>
-    <t>35 (15)</t>
+    <t>198 (35)</t>
+  </si>
+  <si>
+    <t>313 (90)</t>
+  </si>
+  <si>
+    <t>313 (91)</t>
+  </si>
+  <si>
+    <t>545 (214)</t>
+  </si>
+  <si>
+    <t>547 (210)</t>
+  </si>
+  <si>
+    <t>19 (7)</t>
+  </si>
+  <si>
+    <t>354 (135)</t>
+  </si>
+  <si>
+    <t>354 (139)</t>
+  </si>
+  <si>
+    <t>63 (21)</t>
+  </si>
+  <si>
+    <t>60 (20)</t>
+  </si>
+  <si>
+    <t>36 (17)</t>
+  </si>
+  <si>
+    <t>35 (16)</t>
   </si>
   <si>
     <t>69 (24)</t>
   </si>
   <si>
-    <t>69 (21)</t>
-  </si>
-  <si>
-    <t>42 (15)</t>
-  </si>
-  <si>
-    <t>40 (15)</t>
-  </si>
-  <si>
-    <t>47 (17)</t>
-  </si>
-  <si>
-    <t>46 (17)</t>
-  </si>
-  <si>
-    <t>15 (4)</t>
-  </si>
-  <si>
-    <t>210 ± 27</t>
-  </si>
-  <si>
-    <t>361 ± 51</t>
-  </si>
-  <si>
-    <t>362 ± 50</t>
-  </si>
-  <si>
-    <t>617 ± 69</t>
-  </si>
-  <si>
-    <t>623 ± 63</t>
+    <t>69 (22)</t>
+  </si>
+  <si>
+    <t>44 (16)</t>
+  </si>
+  <si>
+    <t>43 (17)</t>
+  </si>
+  <si>
+    <t>48 (17)</t>
+  </si>
+  <si>
+    <t>15 (5)</t>
+  </si>
+  <si>
+    <t>209 ± 27</t>
+  </si>
+  <si>
+    <t>365 ± 52</t>
+  </si>
+  <si>
+    <t>364 ± 50</t>
+  </si>
+  <si>
+    <t>626 ± 66</t>
+  </si>
+  <si>
+    <t>632 ± 57</t>
   </si>
   <si>
     <t>23 ± 4</t>
   </si>
   <si>
-    <t>390 ± 43</t>
-  </si>
-  <si>
-    <t>393 ± 40</t>
-  </si>
-  <si>
-    <t>72 ± 13</t>
-  </si>
-  <si>
-    <t>69 ± 14</t>
-  </si>
-  <si>
-    <t>43 ± 6</t>
-  </si>
-  <si>
-    <t>79 ± 11</t>
-  </si>
-  <si>
-    <t>79 ± 10</t>
-  </si>
-  <si>
-    <t>49 ± 6</t>
-  </si>
-  <si>
-    <t>49 ± 7</t>
-  </si>
-  <si>
-    <t>56 ± 6</t>
-  </si>
-  <si>
-    <t>55 ± 6</t>
+    <t>396 ± 39</t>
+  </si>
+  <si>
+    <t>399 ± 36</t>
+  </si>
+  <si>
+    <t>73 ± 13</t>
+  </si>
+  <si>
+    <t>71 ± 13</t>
+  </si>
+  <si>
+    <t>44 ± 6</t>
+  </si>
+  <si>
+    <t>45 ± 6</t>
+  </si>
+  <si>
+    <t>80 ± 11</t>
+  </si>
+  <si>
+    <t>80 ± 10</t>
+  </si>
+  <si>
+    <t>51 ± 6</t>
+  </si>
+  <si>
+    <t>57 ± 6</t>
+  </si>
+  <si>
+    <t>57 ± 5</t>
   </si>
   <si>
     <t>18 ± 3</t>
   </si>
   <si>
-    <t>218 (42)</t>
-  </si>
-  <si>
-    <t>368 (73)</t>
-  </si>
-  <si>
-    <t>373 (81)</t>
-  </si>
-  <si>
-    <t>619 (98)</t>
-  </si>
-  <si>
-    <t>624 (75)</t>
-  </si>
-  <si>
-    <t>21 (6)</t>
+    <t>216 (42)</t>
+  </si>
+  <si>
+    <t>383 (83)</t>
+  </si>
+  <si>
+    <t>382 (81)</t>
+  </si>
+  <si>
+    <t>633 (94)</t>
+  </si>
+  <si>
+    <t>634 (46)</t>
+  </si>
+  <si>
+    <t>22 (6)</t>
   </si>
   <si>
     <t>22 (4)</t>
   </si>
   <si>
-    <t>382 (51)</t>
-  </si>
-  <si>
-    <t>394 (56)</t>
-  </si>
-  <si>
-    <t>67 (13)</t>
-  </si>
-  <si>
-    <t>66 (12)</t>
-  </si>
-  <si>
-    <t>44 (11)</t>
-  </si>
-  <si>
-    <t>44 (10)</t>
-  </si>
-  <si>
-    <t>80 (12)</t>
-  </si>
-  <si>
-    <t>80 (14)</t>
-  </si>
-  <si>
-    <t>48 (8)</t>
-  </si>
-  <si>
-    <t>56 (4)</t>
-  </si>
-  <si>
-    <t>17 (3)</t>
+    <t>395 (47)</t>
+  </si>
+  <si>
+    <t>404 (32)</t>
+  </si>
+  <si>
+    <t>70 (13)</t>
+  </si>
+  <si>
+    <t>66 (10)</t>
+  </si>
+  <si>
+    <t>46 (9)</t>
+  </si>
+  <si>
+    <t>45 (5)</t>
+  </si>
+  <si>
+    <t>81 (7)</t>
+  </si>
+  <si>
+    <t>82 (8)</t>
+  </si>
+  <si>
+    <t>49 (9)</t>
+  </si>
+  <si>
+    <t>50 (8)</t>
+  </si>
+  <si>
+    <t>56 (5)</t>
+  </si>
+  <si>
+    <t>56 (3)</t>
   </si>
   <si>
     <t>18 (3)</t>
+  </si>
+  <si>
+    <t>18 (2)</t>
   </si>
   <si>
     <t>198 ± 27</t>
@@ -1050,14 +1059,18 @@
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
@@ -1150,7 +1163,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10">
         <v>257.68767348504866</v>
@@ -1159,10 +1172,10 @@
         <v>159.01177934791318</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="10">
         <v>242.2973707233366</v>
@@ -1171,10 +1184,10 @@
         <v>159.03429644135798</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N5" s="10">
         <v>257.68767348504866</v>
@@ -1191,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10">
         <v>453.54094605697799</v>
@@ -1200,10 +1213,10 @@
         <v>299.22788852956739</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" s="10">
         <v>453.54094605697799</v>
@@ -1212,10 +1225,10 @@
         <v>255.60664497125507</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N6" s="10">
         <v>339.80516491961083</v>
@@ -1232,7 +1245,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10">
         <v>447.99064899131992</v>
@@ -1241,10 +1254,10 @@
         <v>299.20997954111704</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" s="10">
         <v>447.99064899131992</v>
@@ -1253,10 +1266,10 @@
         <v>239.3154822239201</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N7" s="10">
         <v>335.68835104083661</v>
@@ -1273,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10">
         <v>771.60648733335051</v>
@@ -1282,10 +1295,10 @@
         <v>549.83117157702077</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J8" s="10">
         <v>771.60648733335051</v>
@@ -1294,10 +1307,10 @@
         <v>382.15101397977611</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N8" s="10">
         <v>539.93979312141653</v>
@@ -1314,19 +1327,19 @@
         <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10">
         <v>761.54801560776104</v>
       </c>
       <c r="G9" s="9">
-        <v>550.14409633738364</v>
+        <v>556.18238320310309</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" s="10">
         <v>761.54801560776104</v>
@@ -1335,10 +1348,10 @@
         <v>368.79522084447211</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N9" s="10">
         <v>538.34017087354471</v>
@@ -1355,19 +1368,19 @@
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10">
         <v>30.678709510213743</v>
       </c>
       <c r="G10" s="9">
-        <v>19.198992167382439</v>
+        <v>19.278053672711657</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" s="10">
         <v>30.678709510213743</v>
@@ -1376,10 +1389,10 @@
         <v>11.060730933244383</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N10" s="10">
         <v>18.403927492331452</v>
@@ -1396,19 +1409,19 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="10">
         <v>31.670808305195486</v>
       </c>
       <c r="G11" s="9">
-        <v>18.041747839804266</v>
+        <v>18.812267884199336</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" s="10">
         <v>31.670808305195486</v>
@@ -1417,10 +1430,10 @@
         <v>11.60585804057674</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N11" s="10">
         <v>19.815004366248999</v>
@@ -1437,19 +1450,19 @@
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10">
         <v>483.66647554695999</v>
       </c>
       <c r="G12" s="9">
-        <v>338.15913398357679</v>
+        <v>355.33293641496198</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J12" s="10">
         <v>483.66647554695999</v>
@@ -1458,10 +1471,10 @@
         <v>235.33417757902004</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N12" s="10">
         <v>351.87930547056237</v>
@@ -1478,19 +1491,19 @@
         <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10">
         <v>478.55181549202115</v>
       </c>
       <c r="G13" s="9">
-        <v>341.33205599431972</v>
+        <v>353.21956783022921</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" s="10">
         <v>478.55181549202115</v>
@@ -1499,10 +1512,10 @@
         <v>237.14294606781442</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N13" s="10">
         <v>357.91248357161743</v>
@@ -1519,19 +1532,19 @@
         <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="10">
         <v>103.86094898534905</v>
       </c>
       <c r="G14" s="9">
-        <v>58.834325008077293</v>
+        <v>61.526519028456256</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" s="10">
         <v>103.86094898534905</v>
@@ -1540,10 +1553,10 @@
         <v>40.007581978338273</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" s="10">
         <v>65.666254633351897</v>
@@ -1560,19 +1573,19 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="10">
         <v>103.71304122731408</v>
       </c>
       <c r="G15" s="9">
-        <v>56.45808171738269</v>
+        <v>59.238490529110379</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J15" s="10">
         <v>103.71304122731408</v>
@@ -1581,10 +1594,10 @@
         <v>37.561089633043089</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N15" s="10">
         <v>68.222557874019287</v>
@@ -1601,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="10">
         <v>53.546388528150082</v>
@@ -1610,10 +1623,10 @@
         <v>35.343414810190005</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10">
         <v>53.546388528150082</v>
@@ -1622,10 +1635,10 @@
         <v>25.805285313618253</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N16" s="10">
         <v>43.269160433846963</v>
@@ -1639,10 +1652,10 @@
         <v>25.16564147078164</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="10">
         <v>54.154087978341465</v>
@@ -1651,10 +1664,10 @@
         <v>34.561722037893453</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J17" s="10">
         <v>54.154087978341465</v>
@@ -1663,10 +1676,10 @@
         <v>25.16564147078164</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N17" s="10">
         <v>46.824310416893105</v>
@@ -1680,10 +1693,10 @@
         <v>51.285536979511924</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" s="10">
         <v>102.29816942794594</v>
@@ -1692,10 +1705,10 @@
         <v>61.782435681198983</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J18" s="10">
         <v>102.29816942794594</v>
@@ -1704,10 +1717,10 @@
         <v>51.285536979511924</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N18" s="10">
         <v>77.888873780489178</v>
@@ -1721,10 +1734,10 @@
         <v>49.467830056926203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="10">
         <v>98.549859594971508</v>
@@ -1733,10 +1746,10 @@
         <v>61.938285189972106</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J19" s="10">
         <v>98.549859594971508</v>
@@ -1745,10 +1758,10 @@
         <v>49.467830056926203</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N19" s="10">
         <v>77.027093300618134</v>
@@ -1762,22 +1775,22 @@
         <v>30.565332696571385</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" s="10">
         <v>60.457429993993088</v>
       </c>
       <c r="G20" s="9">
-        <v>41.672208621392436</v>
+        <v>41.756450918328206</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J20" s="10">
         <v>60.457429993993088</v>
@@ -1786,10 +1799,10 @@
         <v>30.565332696571385</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N20" s="10">
         <v>49.964787604945187</v>
@@ -1803,10 +1816,10 @@
         <v>29.467423949875165</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="10">
         <v>61.747006010444245</v>
@@ -1815,10 +1828,10 @@
         <v>40.347255760962462</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J21" s="10">
         <v>61.747006010444245</v>
@@ -1827,10 +1840,10 @@
         <v>29.467423949875165</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N21" s="10">
         <v>51.823795575644809</v>
@@ -1844,10 +1857,10 @@
         <v>36.600418315042461</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="10">
         <v>66.967222987063252</v>
@@ -1856,10 +1869,10 @@
         <v>43.652153876551921</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J22" s="10">
         <v>66.967222987063252</v>
@@ -1868,10 +1881,10 @@
         <v>36.600418315042461</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N22" s="10">
         <v>50.885634420121612</v>
@@ -1885,10 +1898,10 @@
         <v>35.46956144066089</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" s="10">
         <v>66.221901559091847</v>
@@ -1897,10 +1910,10 @@
         <v>44.401883453259963</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J23" s="10">
         <v>66.221901559091847</v>
@@ -1909,10 +1922,10 @@
         <v>35.46956144066089</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N23" s="10">
         <v>50.688618977381225</v>
@@ -1926,10 +1939,10 @@
         <v>11.860233735296582</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="10">
         <v>23.332978675106833</v>
@@ -1938,10 +1951,10 @@
         <v>14.433710508642061</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J24" s="10">
         <v>23.332978675106833</v>
@@ -1950,10 +1963,10 @@
         <v>11.860233735296582</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N24" s="10">
         <v>15.681451332839655</v>
@@ -1967,10 +1980,10 @@
         <v>12.321695293798841</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="13">
         <v>24.521566688053426</v>
@@ -1979,10 +1992,10 @@
         <v>13.456182260323526</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J25" s="13">
         <v>24.521566688053426</v>
@@ -1991,10 +2004,10 @@
         <v>12.321695293798841</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N25" s="13">
         <v>15.844565925741248</v>
